--- a/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks+Si.xlsx
+++ b/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks+Si.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>D1D1_amplitude</t>
   </si>
@@ -187,10 +187,25 @@
     <t>AD3/(AG+AD2</t>
   </si>
   <si>
+    <t>D5_amplitude</t>
+  </si>
+  <si>
+    <t>D5_center</t>
+  </si>
+  <si>
+    <t>D5_sigma</t>
+  </si>
+  <si>
+    <t>D5_fwhm</t>
+  </si>
+  <si>
+    <t>D5_height</t>
+  </si>
+  <si>
     <t>leastsq</t>
   </si>
   <si>
-    <t>Fit succeeded. Could not estimate error-bars.</t>
+    <t>Fit succeeded.</t>
   </si>
   <si>
     <t>2021-05-07 16:00</t>
@@ -551,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,8 +744,23 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:62">
       <c r="A2">
         <v>43.89298100725679</v>
       </c>
@@ -738,169 +768,184 @@
         <v>0.09009322726714032</v>
       </c>
       <c r="C2">
-        <v>1.202477628677085</v>
+        <v>1.037451621302821</v>
       </c>
       <c r="D2">
-        <v>0.002822717438209119</v>
+        <v>0.002452604305680428</v>
       </c>
       <c r="E2">
-        <v>-2514.95471484272</v>
+        <v>-2562.209090075958</v>
       </c>
       <c r="F2">
-        <v>-2588.6795569665</v>
+        <v>-2648.221405887035</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>882</v>
+        <v>4242</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>82.95615695769639</v>
+        <v>86.38704743112181</v>
       </c>
       <c r="M2">
-        <v>1569.510192271891</v>
+        <v>1567.999601020724</v>
       </c>
       <c r="N2">
-        <v>28.34516820713293</v>
+        <v>30.05394474207263</v>
       </c>
       <c r="O2">
-        <v>419.4307254105368</v>
+        <v>283.892310904521</v>
       </c>
       <c r="P2">
-        <v>1339.511571989909</v>
+        <v>1352.718562838653</v>
       </c>
       <c r="Q2">
-        <v>78.82567758680557</v>
+        <v>66.59847199636711</v>
       </c>
       <c r="R2">
-        <v>0.449873298233916</v>
+        <v>2.059545867183488E-08</v>
       </c>
       <c r="S2">
-        <v>961.698326860158</v>
+        <v>970.5776012110452</v>
       </c>
       <c r="T2">
-        <v>0.01825634222055172</v>
+        <v>129.716896567188</v>
       </c>
       <c r="U2">
-        <v>56.69033641426586</v>
+        <v>60.10788948414525</v>
       </c>
       <c r="V2">
-        <v>0.9315790907511267</v>
+        <v>0.9149498565025741</v>
       </c>
       <c r="W2">
-        <v>157.6513551736111</v>
+        <v>133.1969439927342</v>
       </c>
       <c r="X2">
-        <v>1.693724130887815</v>
+        <v>1.356873970017155</v>
       </c>
       <c r="Y2">
-        <v>0.04299039978779962</v>
+        <v>305.4599423743456</v>
       </c>
       <c r="Z2">
-        <v>9.830747371945382</v>
+        <v>6.334101315660908E-11</v>
       </c>
       <c r="AA2">
-        <v>1.818121668576927</v>
+        <v>1.483003642630046</v>
       </c>
       <c r="AB2">
-        <v>2.420080061772736</v>
+        <v>2.966951579563744</v>
       </c>
       <c r="AC2">
-        <v>0.4680929943031837</v>
+        <v>0.5842992182544493</v>
       </c>
       <c r="AD2">
-        <v>5.056052989827217</v>
+        <v>3.286283295315472</v>
       </c>
       <c r="AE2">
-        <v>0.870244043892104</v>
+        <v>1.338898568565926</v>
       </c>
       <c r="AF2">
-        <v>0.9209106759782373</v>
+        <v>1.360580114456734</v>
       </c>
       <c r="AG2">
-        <v>75.39420657707622</v>
+        <v>84.59245177973327</v>
       </c>
       <c r="AH2">
-        <v>1501.306242356811</v>
+        <v>1494.702310569957</v>
       </c>
       <c r="AI2">
-        <v>51.19565867771873</v>
+        <v>54.3545891549042</v>
       </c>
       <c r="AJ2">
-        <v>102.3913173554375</v>
+        <v>108.7091783098084</v>
       </c>
       <c r="AK2">
-        <v>0.468764793265042</v>
+        <v>0.4953880672342867</v>
       </c>
       <c r="AL2">
-        <v>0.5031937684293448</v>
+        <v>0.5414373954086663</v>
       </c>
       <c r="AM2">
-        <v>0.9088440128141857</v>
+        <v>0.9792261026999515</v>
       </c>
       <c r="AN2">
-        <v>49.56092004786986</v>
+        <v>118.2480302000008</v>
       </c>
       <c r="AO2">
-        <v>1202.921277953327</v>
+        <v>1289.979876202457</v>
       </c>
       <c r="AP2">
-        <v>80.45346900378468</v>
+        <v>64.63349407559178</v>
       </c>
       <c r="AQ2">
-        <v>160.9069380075694</v>
+        <v>129.2669881511836</v>
       </c>
       <c r="AR2">
-        <v>0.1960851620158645</v>
+        <v>0.5823531468705393</v>
       </c>
       <c r="AS2">
-        <v>0.2104868646823773</v>
+        <v>0.6364864071312097</v>
       </c>
       <c r="AT2">
-        <v>0.5974351014493539</v>
+        <v>1.368816665418302</v>
       </c>
       <c r="AU2">
-        <v>63.00350498883815</v>
+        <v>67.95568186708982</v>
       </c>
       <c r="AV2">
-        <v>1601.666524715363</v>
+        <v>1600.761672131463</v>
       </c>
       <c r="AW2">
-        <v>23.66721840650185</v>
+        <v>24.70089226059336</v>
       </c>
       <c r="AX2">
-        <v>47.33443681300369</v>
+        <v>49.40178452118672</v>
       </c>
       <c r="AY2">
-        <v>0.8473593739743057</v>
+        <v>0.8757159891772086</v>
       </c>
       <c r="AZ2">
-        <v>0.9520982116428802</v>
+        <v>0.7577482830148308</v>
       </c>
       <c r="BA2">
-        <v>4.62137198263154</v>
+        <v>5.806677624519121</v>
       </c>
       <c r="BB2">
-        <v>0.2635081553185668</v>
+        <v>0.2766502016160501</v>
       </c>
       <c r="BC2">
-        <v>2.87360713101799</v>
+        <v>1.839363034432296</v>
       </c>
       <c r="BD2">
-        <v>1.53117660118044</v>
+        <v>2.392132448914862</v>
       </c>
       <c r="BE2">
-        <v>0.5165413893921825</v>
+        <v>0.5480818705511478</v>
+      </c>
+      <c r="BF2">
+        <v>39.13665246079825</v>
+      </c>
+      <c r="BG2">
+        <v>1163.202321547499</v>
+      </c>
+      <c r="BH2">
+        <v>64.49456899882043</v>
+      </c>
+      <c r="BI2">
+        <v>128.9891379976409</v>
+      </c>
+      <c r="BJ2">
+        <v>0.1931571002724165</v>
       </c>
     </row>
   </sheetData>

--- a/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks+Si.xlsx
+++ b/raman_fitting/results/DW/DW_FitParameters_Model_1st_6peaks+Si.xlsx
@@ -208,7 +208,7 @@
     <t>Fit succeeded.</t>
   </si>
   <si>
-    <t>2021-05-07 16:00</t>
+    <t>2021-05-08 14:00</t>
   </si>
 </sst>
 </file>
